--- a/Annotation_Schema.xlsx
+++ b/Annotation_Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phd\journal_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E302CAE8-F5AE-4DF3-8DC2-478CB5FA048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAFD43D-A3CC-4F3B-8552-EC2F8433FF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B3223789-C4B6-4C9C-8AF7-EA42FF59F996}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{B3223789-C4B6-4C9C-8AF7-EA42FF59F996}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Class" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Heuristic</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>Hierarchy makes no sense in terms of semantics.</t>
+  </si>
+  <si>
+    <t>These are classes that have fields, getting and setting methods for the fields, and nothing else. Such classes are dumb data holders and are almost certainly being manipulated in far too much detail by other classes. In early stages these classes may have public fields. Look for where these getting and setting methods are used by other classes.</t>
+  </si>
+  <si>
+    <t>A method that seems more interested in a class other than the one it actually is in. Often a method uses features of several classes, so which one should it live with? The heuristic we use is to determine which class has most of the data and put the method with that data.</t>
+  </si>
+  <si>
+    <t>Subclasses get to inherit the methods and data of their parents, but don't need or want them. Hierarchy is wrong.</t>
   </si>
 </sst>
 </file>
@@ -154,13 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A5E604-6682-445C-B761-ED03094B1B62}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,67 +500,75 @@
     <col min="2" max="2" width="98.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -559,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9094F11B-5777-40D3-BA0A-F8134C838E76}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,83 +591,91 @@
     <col min="2" max="2" width="98.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -658,10 +686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C372-6816-42EB-AEF3-9A330357713C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,73 +700,81 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
